--- a/FashionShop/쇼핑몰DB.xlsx
+++ b/FashionShop/쇼핑몰DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT_Korea_Class\Spring\FashionShop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1B7AD0-16A1-4D76-B24C-7B35F05AF840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2800758-4048-4C55-8D84-1E82C3467D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="25995" windowHeight="14820" xr2:uid="{239C4E1C-79D8-481D-A521-AFBDBCCFDCE3}"/>
+    <workbookView xWindow="-20610" yWindow="1695" windowWidth="20730" windowHeight="11760" xr2:uid="{239C4E1C-79D8-481D-A521-AFBDBCCFDCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,162 @@
   </si>
   <si>
     <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송받을사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB넣을필요없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 결제할 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액? 물건가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불액(포인트 차감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 요약 (order_summary )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보 ( receiver )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법 ( paymethod )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymetho_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세 ( order_detail )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -360,13 +516,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +586,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,8 +604,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,46 +945,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C318EA7-A007-4846-948D-C1AF8CF010C3}">
-  <dimension ref="B3:S37"/>
+  <dimension ref="B3:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="14.125" customWidth="1"/>
     <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="J3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="17"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
@@ -786,9 +996,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -800,8 +1010,8 @@
       <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="16"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
     </row>
@@ -842,6 +1052,9 @@
       <c r="O5" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="P5" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -874,6 +1087,9 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -906,6 +1122,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -938,6 +1155,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -970,6 +1188,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F10" s="1">
@@ -993,6 +1212,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F11" s="1">
@@ -1016,13 +1236,14 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="F12" s="1">
         <v>7</v>
       </c>
@@ -1044,6 +1265,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -1076,6 +1298,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -1108,17 +1331,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="F15" s="1">
         <v>10</v>
       </c>
@@ -1140,17 +1358,12 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="F16" s="1">
         <v>11</v>
       </c>
@@ -1172,17 +1385,12 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="F17" s="1">
         <v>12</v>
       </c>
@@ -1204,8 +1412,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1230,8 +1439,9 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F19" s="1">
         <v>14</v>
       </c>
@@ -1253,8 +1463,9 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F20" s="1">
         <v>15</v>
       </c>
@@ -1276,8 +1487,9 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F21" s="1">
         <v>16</v>
       </c>
@@ -1299,20 +1511,21 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="18" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1321,10 +1534,13 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1341,10 +1557,13 @@
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -1361,10 +1580,13 @@
         <v>4</v>
       </c>
       <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -1381,10 +1603,13 @@
         <v>4</v>
       </c>
       <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -1397,8 +1622,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -1412,19 +1638,19 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="F31" s="15" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="F31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
@@ -1436,7 +1662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1456,7 +1682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -1467,16 +1693,16 @@
         <v>32</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
       </c>
-      <c r="H34" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>2</v>
       </c>
@@ -1492,11 +1718,11 @@
       <c r="G35" s="1">
         <v>4</v>
       </c>
-      <c r="H35" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -1512,11 +1738,11 @@
       <c r="G36" s="1">
         <v>4</v>
       </c>
-      <c r="H36" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>4</v>
       </c>
@@ -1532,12 +1758,226 @@
       <c r="G37" s="1">
         <v>4</v>
       </c>
-      <c r="H37" s="1">
-        <v>38</v>
-      </c>
+      <c r="H37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="28">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="G49" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1">
+        <v>5</v>
+      </c>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>23</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="3">
+        <v>6</v>
+      </c>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
+        <v>23</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G49:J49"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B3:D3"/>
